--- a/doc/아이템.xlsx
+++ b/doc/아이템.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="95">
   <si>
     <t>구분</t>
   </si>
@@ -167,6 +167,135 @@
   </si>
   <si>
     <t>COVER-RADIATOR GRILLE UPR</t>
+  </si>
+  <si>
+    <t>mobis</t>
+  </si>
+  <si>
+    <t>86370K0000</t>
+  </si>
+  <si>
+    <t>86370Q5000HMS</t>
+  </si>
+  <si>
+    <t>86370Q5010CR</t>
+  </si>
+  <si>
+    <t>86390K00001D</t>
+  </si>
+  <si>
+    <t>86390K00009H</t>
+  </si>
+  <si>
+    <t>86390K0000AJR</t>
+  </si>
+  <si>
+    <t>86390K0000B3A</t>
+  </si>
+  <si>
+    <t>86390K0000B4R</t>
+  </si>
+  <si>
+    <t>86390K0000CEJ</t>
+  </si>
+  <si>
+    <t>86390K0000G3Y</t>
+  </si>
+  <si>
+    <t>86390K0000GEA</t>
+  </si>
+  <si>
+    <t>86390K0000KCS</t>
+  </si>
+  <si>
+    <t>86390K0000KDG</t>
+  </si>
+  <si>
+    <t>86390K0000KDT</t>
+  </si>
+  <si>
+    <t>86390K0000KTZ</t>
+  </si>
+  <si>
+    <t>86390K0000M3R</t>
+  </si>
+  <si>
+    <t>86390K0000M4A</t>
+  </si>
+  <si>
+    <t>86390K0000SWP</t>
+  </si>
+  <si>
+    <t>86390Q50001D</t>
+  </si>
+  <si>
+    <t>86390Q50009H</t>
+  </si>
+  <si>
+    <t>86390Q5000B3A</t>
+  </si>
+  <si>
+    <t>86390Q5000B4Y</t>
+  </si>
+  <si>
+    <t>86390Q5000BU3</t>
+  </si>
+  <si>
+    <t>86390Q5000KDG</t>
+  </si>
+  <si>
+    <t>86390Q5000KLG</t>
+  </si>
+  <si>
+    <t>86390Q5000M3R</t>
+  </si>
+  <si>
+    <t>86390Q5000SWP</t>
+  </si>
+  <si>
+    <t>86390Q51001D</t>
+  </si>
+  <si>
+    <t>86390Q51009H</t>
+  </si>
+  <si>
+    <t>86390Q5100B3A</t>
+  </si>
+  <si>
+    <t>86390Q5100B4Y</t>
+  </si>
+  <si>
+    <t>86390Q5100BU3</t>
+  </si>
+  <si>
+    <t>86390Q5100KDG</t>
+  </si>
+  <si>
+    <t>86390Q5100KLG</t>
+  </si>
+  <si>
+    <t>86390Q5100M3R</t>
+  </si>
+  <si>
+    <t>86390Q5100SWP</t>
+  </si>
+  <si>
+    <t>86392K0001</t>
+  </si>
+  <si>
+    <t>86910D9500</t>
+  </si>
+  <si>
+    <t>86910D9LA0</t>
+  </si>
+  <si>
+    <t>86910J2000</t>
+  </si>
+  <si>
+    <t>86910K0000</t>
+  </si>
+  <si>
+    <t>86910K0500</t>
   </si>
 </sst>
 </file>
@@ -176,7 +305,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -189,6 +318,10 @@
     <font/>
     <font>
       <name val="Dotum"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -252,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -278,6 +411,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="3" fillId="3" fontId="3" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -908,6 +1044,720 @@
         <v>2858.0</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="5">
+        <v>2858.0</v>
+      </c>
+      <c r="E26" s="5">
+        <v>2858.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="5">
+        <v>2858.0</v>
+      </c>
+      <c r="E27" s="5">
+        <v>2858.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="5">
+        <v>2858.0</v>
+      </c>
+      <c r="E28" s="5">
+        <v>2858.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="5">
+        <v>2858.0</v>
+      </c>
+      <c r="E29" s="5">
+        <v>2858.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="5">
+        <v>2858.0</v>
+      </c>
+      <c r="E30" s="5">
+        <v>2858.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="5">
+        <v>2858.0</v>
+      </c>
+      <c r="E31" s="5">
+        <v>2858.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="5">
+        <v>2858.0</v>
+      </c>
+      <c r="E32" s="5">
+        <v>2858.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="5">
+        <v>2858.0</v>
+      </c>
+      <c r="E33" s="5">
+        <v>2858.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="5">
+        <v>2858.0</v>
+      </c>
+      <c r="E34" s="5">
+        <v>2858.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="5">
+        <v>2858.0</v>
+      </c>
+      <c r="E35" s="5">
+        <v>2858.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" s="5">
+        <v>2858.0</v>
+      </c>
+      <c r="E36" s="5">
+        <v>2858.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="5">
+        <v>2858.0</v>
+      </c>
+      <c r="E37" s="5">
+        <v>2858.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="5">
+        <v>2858.0</v>
+      </c>
+      <c r="E38" s="5">
+        <v>2858.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="5">
+        <v>2858.0</v>
+      </c>
+      <c r="E39" s="5">
+        <v>2858.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="5">
+        <v>2858.0</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2858.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="5">
+        <v>2858.0</v>
+      </c>
+      <c r="E41" s="5">
+        <v>2858.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" s="5">
+        <v>2858.0</v>
+      </c>
+      <c r="E42" s="5">
+        <v>2858.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="5">
+        <v>2858.0</v>
+      </c>
+      <c r="E43" s="5">
+        <v>2858.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" s="5">
+        <v>2858.0</v>
+      </c>
+      <c r="E44" s="5">
+        <v>2858.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" s="5">
+        <v>2858.0</v>
+      </c>
+      <c r="E45" s="5">
+        <v>2858.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" s="5">
+        <v>2858.0</v>
+      </c>
+      <c r="E46" s="5">
+        <v>2858.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D47" s="5">
+        <v>2858.0</v>
+      </c>
+      <c r="E47" s="5">
+        <v>2858.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D48" s="5">
+        <v>2858.0</v>
+      </c>
+      <c r="E48" s="5">
+        <v>2858.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" s="5">
+        <v>2858.0</v>
+      </c>
+      <c r="E49" s="5">
+        <v>2858.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50" s="5">
+        <v>2858.0</v>
+      </c>
+      <c r="E50" s="5">
+        <v>2858.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51" s="5">
+        <v>2858.0</v>
+      </c>
+      <c r="E51" s="5">
+        <v>2858.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52" s="5">
+        <v>2858.0</v>
+      </c>
+      <c r="E52" s="5">
+        <v>2858.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D53" s="5">
+        <v>2858.0</v>
+      </c>
+      <c r="E53" s="5">
+        <v>2858.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D54" s="5">
+        <v>2858.0</v>
+      </c>
+      <c r="E54" s="5">
+        <v>2858.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D55" s="5">
+        <v>2858.0</v>
+      </c>
+      <c r="E55" s="5">
+        <v>2858.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D56" s="5">
+        <v>2858.0</v>
+      </c>
+      <c r="E56" s="5">
+        <v>2858.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D57" s="5">
+        <v>2858.0</v>
+      </c>
+      <c r="E57" s="5">
+        <v>2858.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D58" s="5">
+        <v>2858.0</v>
+      </c>
+      <c r="E58" s="5">
+        <v>2858.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" s="5">
+        <v>2858.0</v>
+      </c>
+      <c r="E59" s="5">
+        <v>2858.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D60" s="5">
+        <v>2858.0</v>
+      </c>
+      <c r="E60" s="5">
+        <v>2858.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D61" s="5">
+        <v>2858.0</v>
+      </c>
+      <c r="E61" s="5">
+        <v>2858.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D62" s="5">
+        <v>2858.0</v>
+      </c>
+      <c r="E62" s="5">
+        <v>2858.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D63" s="5">
+        <v>2858.0</v>
+      </c>
+      <c r="E63" s="5">
+        <v>2858.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D64" s="5">
+        <v>2858.0</v>
+      </c>
+      <c r="E64" s="5">
+        <v>2858.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D65" s="5">
+        <v>2858.0</v>
+      </c>
+      <c r="E65" s="5">
+        <v>2858.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D66" s="5">
+        <v>2858.0</v>
+      </c>
+      <c r="E66" s="5">
+        <v>2858.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D67" s="5">
+        <v>2858.0</v>
+      </c>
+      <c r="E67" s="5">
+        <v>2858.0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
